--- a/data/trans_camb/P25A_7_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_7_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,2</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>74,68</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>59,61</t>
+          <t>4,34</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-4,24</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,76</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 3,54</t>
+          <t>-4,03; 4,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 2,19</t>
+          <t>-5,17; 3,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,17; 54,67</t>
+          <t>-1,68; 9,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 12,03</t>
+          <t>-5,69; 8,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 14,92</t>
+          <t>-2,51; 10,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,42; 87,1</t>
+          <t>-2,55; 10,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 6,73</t>
+          <t>-2,42; 11,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 7,48</t>
+          <t>-0,99; 14,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>42,54; 73,98</t>
+          <t>-3,98; 13,57</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-13,97; 6,67</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 6,38</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 5,82</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 9,99</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 7,57</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-6,28; 5,72</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,85%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-45,06%</t>
+          <t>-36,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>817,31%</t>
+          <t>117,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>80,23%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1207,14%</t>
+          <t>57,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>49,25%</t>
+          <t>65,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>44,66%</t>
+          <t>86,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1248,47%</t>
+          <t>34,91%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-20,18%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>43,87%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>35,56%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>98,84%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>21,03%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-2,06%</t>
         </is>
       </c>
     </row>
@@ -791,7 +929,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-89,22; 357,75</t>
+          <t>-83,51; 357,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,37 +939,67 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,72; 3694,24</t>
+          <t>-50,82; 1004,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,55; 304,48</t>
+          <t>-65,03; 291,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 396,38</t>
+          <t>-50,39; 1020,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>598,16; 2756,82</t>
+          <t>-35,23; 294,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,97; 200,52</t>
+          <t>-33,48; 292,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,7; 236,96</t>
+          <t>-19,14; 335,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>619,06; 2542,48</t>
+          <t>-24,75; 169,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-53,54; 47,91</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-24,81; 199,89</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-35,58; 214,67</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 353,96</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-25,53; 125,63</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-42,33; 69,44</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>78,07</t>
+          <t>11,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>48,29</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>62,0</t>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,1</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-2,26</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,36</t>
+          <t>-3,31; 5,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 16,24</t>
+          <t>0,67; 15,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,09; 91,01</t>
+          <t>3,75; 24,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 0,22</t>
+          <t>-21,89; 2,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 4,48</t>
+          <t>-14,47; 3,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,36; 62,72</t>
+          <t>-12,41; 0,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 1,66</t>
+          <t>-7,65; 5,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 8,44</t>
+          <t>-7,22; 8,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,0; 72,66</t>
+          <t>-6,1; 9,65</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,53; 8,35</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,24; 1,58</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 8,51</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 13,98</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-11,05; 3,63</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-8,74; 2,71</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>38,48%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>179,47%</t>
+          <t>161,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2109,23%</t>
+          <t>272,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-41,01%</t>
+          <t>-41,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,05%</t>
+          <t>-38,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>333,92%</t>
+          <t>-40,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-23,87%</t>
+          <t>-9,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>699,83%</t>
+          <t>15,08%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-24,34%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>32,14%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>68,57%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-15,08%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-17,94%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,09; 288,74</t>
+          <t>-59,64; 232,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 754,08</t>
+          <t>-9,75; 651,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>969,84; 5330,01</t>
+          <t>37,25; 1028,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-69,24; 4,43</t>
+          <t>-79,89; 30,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,28; 42,13</t>
+          <t>-69,93; 51,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>178,81; 575,04</t>
+          <t>-67,97; 7,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,82; 28,6</t>
+          <t>-42,8; 51,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 115,67</t>
+          <t>-41,03; 79,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>430,39; 1053,89</t>
+          <t>-32,94; 91,41</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-37,44; 69,23</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-55,34; 26,78</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-18,26; 116,83</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 188,63</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-50,69; 34,11</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-46,28; 22,44</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>61,69</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>58,63</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>60,37</t>
+          <t>3,93</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,98</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 4,16</t>
+          <t>-5,06; 3,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 6,12</t>
+          <t>-3,72; 5,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,76; 75,96</t>
+          <t>-2,28; 7,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 3,19</t>
+          <t>-5,36; 6,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 6,47</t>
+          <t>-10,05; 3,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,76; 70,0</t>
+          <t>-5,8; 3,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 2,27</t>
+          <t>-2,49; 7,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,75</t>
+          <t>3,71; 15,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>49,65; 69,89</t>
+          <t>-3,57; 10,9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 13,2</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 2,5</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 4,81</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 10,09</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; 6,65</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 5,87</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>-4,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>968,27%</t>
+          <t>32,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-14,52%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>-24,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>454,82%</t>
+          <t>-7,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-8,4%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>80,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>625,97%</t>
+          <t>18,57%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>24,09%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-6,35%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>15,99%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>63,22%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,45; 95,11</t>
+          <t>-53,14; 72,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,09; 155,66</t>
+          <t>-40,45; 107,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>531,46; 1783,97</t>
+          <t>-26,91; 166,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,13; 34,73</t>
+          <t>-46,09; 101,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,58; 66,5</t>
+          <t>-60,91; 40,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>250,31; 682,19</t>
+          <t>-40,0; 40,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 31,79</t>
+          <t>-18,63; 73,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 62,03</t>
+          <t>25,4; 162,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>396,74; 877,1</t>
+          <t>-14,96; 61,97</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-9,73; 78,29</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-35,8; 32,34</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-18,86; 63,44</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>21,54; 131,82</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-17,81; 49,22</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-24,74; 42,1</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>50,36</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>42,92</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>46,54</t>
+          <t>4,93</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,62</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,03</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 6,7</t>
+          <t>-4,34; 5,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 11,38</t>
+          <t>-1,62; 12,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>36,77; 62,69</t>
+          <t>-1,99; 13,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 4,15</t>
+          <t>-6,05; 10,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 9,22</t>
+          <t>-11,25; 5,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,4; 52,82</t>
+          <t>-8,11; 4,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,91</t>
+          <t>-3,69; 9,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 8,9</t>
+          <t>-1,97; 11,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>37,35; 54,54</t>
+          <t>-2,1; 12,95</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 10,77</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 4,05</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 8,32</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 9,87</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 9,04</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-6,05; 5,29</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>52,82%</t>
+          <t>51,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>534,58%</t>
+          <t>53,54%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-8,4%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>-13,63%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>213,01%</t>
+          <t>-11,02%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,86%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>310,74%</t>
+          <t>19,72%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>6,22%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-2,8%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>24,05%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>30,05%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>20,17%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-2,39%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,97; 103,11</t>
+          <t>-33,6; 84,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 168,75</t>
+          <t>-14,78; 175,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>270,05; 880,93</t>
+          <t>-19,11; 191,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,22; 24,8</t>
+          <t>-32,89; 91,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 53,98</t>
+          <t>-44,54; 30,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>134,93; 307,94</t>
+          <t>-34,19; 25,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 30,93</t>
+          <t>-15,59; 53,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 68,94</t>
+          <t>-9,41; 67,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>219,84; 418,32</t>
+          <t>-8,66; 58,81</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-18,73; 44,62</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-25,35; 30,92</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-5,09; 63,22</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 74,24</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-10,83; 51,95</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-21,7; 25,34</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>60,15</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>11,57</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-6,65</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>46,54</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-7,51</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>53,28</t>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>7,46</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 3,64</t>
+          <t>-8,37; 3,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 10,38</t>
+          <t>-3,17; 10,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>47,12; 70,97</t>
+          <t>-5,0; 8,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 6,6</t>
+          <t>3,09; 20,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 1,32</t>
+          <t>-9,85; 9,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>35,66; 56,42</t>
+          <t>-10,89; 5,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 2,92</t>
+          <t>-15,22; 0,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 3,84</t>
+          <t>-5,62; 12,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>44,61; 60,91</t>
+          <t>-5,64; 13,98</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-11,52; 6,45</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-7,75; 2,59</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-7,44; 3,42</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 8,91</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 13,59</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-8,21; 4,77</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-16,23%</t>
+          <t>-16,53%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>418,53%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-6,96%</t>
+          <t>70,9%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-23,68%</t>
+          <t>-1,95%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>165,84%</t>
+          <t>-9,58%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-10,43%</t>
+          <t>-25,77%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-6,78%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>250,29%</t>
+          <t>10,8%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-5,23%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-12,27%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-8,99%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>12,37%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>30,15%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-4,21%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 35,85</t>
+          <t>-46,55; 33,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 92,21</t>
+          <t>-17,48; 89,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>270,29; 664,5</t>
+          <t>-29,11; 72,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 28,46</t>
+          <t>14,15; 162,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-43,29; 5,57</t>
+          <t>-29,62; 39,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>107,74; 248,11</t>
+          <t>-31,07; 22,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-30,76; 15,91</t>
+          <t>-45,93; 0,76</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 20,09</t>
+          <t>-17,3; 49,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>182,33; 336,98</t>
+          <t>-14,56; 52,06</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-28,05; 18,79</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-30,48; 13,62</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-30,17; 17,92</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-13,33; 45,87</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 63,95</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-21,53; 15,9</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-5,53</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>26,12</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,08</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>23,27</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-8,1</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>26,51</t>
+          <t>5,02</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4,0</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-5,56</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-5,11</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 3,61</t>
+          <t>-15,15; 1,73</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 7,53</t>
+          <t>-12,35; 6,61</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>9,78; 43,42</t>
+          <t>-11,25; 7,92</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 3,11</t>
+          <t>-10,26; 9,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 9,15</t>
+          <t>-3,57; 12,47</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,59; 36,71</t>
+          <t>-15,25; 3,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 0,15</t>
+          <t>-9,88; 9,99</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 6,59</t>
+          <t>-19,5; 2,93</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>14,29; 38,2</t>
+          <t>-6,61; 15,62</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-8,41; 13,64</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-12,0; 0,84</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; 7,07</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-12,32; 3,52</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 9,75</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-3,64; 11,45</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-32,43%</t>
+          <t>-34,77%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-6,98%</t>
+          <t>-11,95%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>153,19%</t>
+          <t>-6,22%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-14,63%</t>
+          <t>-2,78%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-0,28%</t>
+          <t>31,56%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>67,03%</t>
+          <t>-14,57%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-19,43%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-2,22%</t>
+          <t>-22,92%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>18,45%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-20,13%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-1,44%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-18,51%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>12,94%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>18,73%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-63,51; 32,23</t>
+          <t>-66,96; 16,53</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-47,66; 58,28</t>
+          <t>-52,71; 57,4</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>42,46; 339,11</t>
+          <t>-50,4; 61,85</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-37,89; 11,56</t>
+          <t>-47,46; 75,0</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 30,09</t>
+          <t>-24,89; 134,26</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>20,76; 119,5</t>
+          <t>-37,0; 12,07</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-39,85; 0,73</t>
+          <t>-23,73; 33,0</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-25,3; 27,96</t>
+          <t>-48,16; 9,61</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>51,43; 157,65</t>
+          <t>-21,0; 74,78</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-23,58; 60,99</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-37,89; 3,38</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-23,54; 29,92</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-39,11; 14,59</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-17,91; 52,57</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-13,95; 63,48</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>53,35</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>46,66</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>50,34</t>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 1,54</t>
+          <t>-3,2; 1,55</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 5,16</t>
+          <t>-0,58; 4,99</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>47,16; 60,46</t>
+          <t>1,05; 7,83</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 0,72</t>
+          <t>-2,62; 4,63</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,14</t>
+          <t>-4,43; 2,35</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>41,17; 52,22</t>
+          <t>-5,5; 0,36</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,41</t>
+          <t>-2,8; 3,44</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,48</t>
+          <t>-0,9; 6,24</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>46,06; 54,34</t>
+          <t>0,49; 8,15</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 4,87</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 0,23</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 3,3</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 5,61</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 5,07</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 2,51</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-7,83%</t>
+          <t>-9,74%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>598,31%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-11,63%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>-7,7%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>232,33%</t>
+          <t>-12,34%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-10,47%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>344,18%</t>
+          <t>18,43%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-11,52%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>7,89%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>21,41%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>14,76%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-0,08%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 20,9</t>
+          <t>-30,57; 19,47</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 64,97</t>
+          <t>-7,25; 60,75</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>445,57; 769,71</t>
+          <t>8,85; 95,61</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 3,83</t>
+          <t>-17,86; 39,85</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 16,95</t>
+          <t>-25,59; 15,94</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>189,26; 280,47</t>
+          <t>-24,93; 1,73</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 3,19</t>
+          <t>-12,85; 18,32</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 25,2</t>
+          <t>-5,2; 33,11</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>294,96; 402,02</t>
+          <t>1,8; 40,14</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-10,22; 20,57</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-22,71; 1,77</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-5,94; 23,25</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>5,04; 41,34</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 30,89</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-12,61; 12,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
